--- a/students_files/template-KONGO/template-KONGO_files/planning-5 years.xlsx
+++ b/students_files/template-KONGO/template-KONGO_files/planning-5 years.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTC\Documents\Infineon\this week\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BTC\Documents\Infineon\GitHub\Excellence-Program\students_files\template-KONGO\template-KONGO_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284632E1-5EFC-4D39-BC22-E4D76F10299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AF25F-4D4B-4A2E-9415-C58D7C9C34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Duration" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Tasks</t>
   </si>
@@ -69,12 +70,27 @@
     <t xml:space="preserve">implement the image recognition system to detect disease of plants 
 </t>
   </si>
+  <si>
+    <t>planned cost</t>
+  </si>
+  <si>
+    <t>actual cost</t>
+  </si>
+  <si>
+    <t>cumulative planned cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cumulative actual cost </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;CFA&quot;_-;\-* #,##0\ &quot;CFA&quot;_-;_-* &quot;-&quot;\ &quot;CFA&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +109,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -197,11 +221,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -323,7 +366,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$E$1</c:f>
+              <c:f>Duration!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,7 +389,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
+              <c:f>Duration!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -367,7 +410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$2:$E$5</c:f>
+              <c:f>Duration!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -398,7 +441,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$G$1</c:f>
+              <c:f>Duration!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -422,7 +465,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
+              <c:f>Duration!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -443,7 +486,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$5</c:f>
+              <c:f>Duration!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -474,7 +517,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$F$1</c:f>
+              <c:f>Duration!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +540,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$5</c:f>
+              <c:f>Duration!$B$2:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -518,7 +561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$5</c:f>
+              <c:f>Duration!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -566,7 +609,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$1</c15:sqref>
+                          <c15:sqref>Duration!$C$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -595,7 +638,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>Duration!$B$2:$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -622,7 +665,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$C$2:$C$5</c15:sqref>
+                          <c15:sqref>Duration!$C$2:$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -661,7 +704,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$1</c15:sqref>
+                          <c15:sqref>Duration!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -690,7 +733,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>Duration!$B$2:$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -717,7 +760,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Feuil1!$D$2:$D$5</c15:sqref>
+                          <c15:sqref>Duration!$D$2:$D$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -740,6 +783,703 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6738-4F84-A605-3B93AC46DEE0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148050543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-BF"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148050959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148050959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-BF"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148050543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-BF"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-BF"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>planned cost vs actual cost</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-BF"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6972439290430381E-2"/>
+          <c:y val="7.3001430497337746E-2"/>
+          <c:w val="0.92360484857506453"/>
+          <c:h val="0.43400116631424807"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative planned cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>start managing visitors with no Reesa and faso music</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>implement the image recognition system to detect disease of plants 
+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>try to sell our product abroad, look for international partners for exportation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>increase our effectives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4CE-4726-A27B-9885746E1729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>start managing visitors with no Reesa and faso music</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>implement the image recognition system to detect disease of plants 
+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>try to sell our product abroad, look for international partners for exportation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>increase our effectives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C4CE-4726-A27B-9885746E1729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative actual cost </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>start managing visitors with no Reesa and faso music</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>implement the image recognition system to detect disease of plants 
+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>try to sell our product abroad, look for international partners for exportation</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>increase our effectives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C4CE-4726-A27B-9885746E1729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="148050543"/>
+        <c:axId val="148050959"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>planned cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$B$2:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>start managing visitors with no Reesa and faso music</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>implement the image recognition system to detect disease of plants 
+</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>try to sell our product abroad, look for international partners for exportation</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>increase our effectives</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$C$2:$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("CFA"* #,##0_);_("CFA"* \(#,##0\);_("CFA"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>8000000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C4CE-4726-A27B-9885746E1729}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>actual cost</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$B$2:$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>start managing visitors with no Reesa and faso music</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>implement the image recognition system to detect disease of plants 
+</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>try to sell our product abroad, look for international partners for exportation</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>increase our effectives</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Cost!$D$2:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_("CFA"* #,##0_);_("CFA"* \(#,##0\);_("CFA"* "-"_);_(@_)</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>7800000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3500000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C4CE-4726-A27B-9885746E1729}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -970,7 +1710,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1514,21 +2797,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC52765D-CAF4-4AFC-9487-A0F0853340CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72770A18-9421-4B9F-89B2-DBF076EC7A19}" name="Tableau1" displayName="Tableau1" ref="B1:G5" totalsRowShown="0">
   <autoFilter ref="B1:G5" xr:uid="{72770A18-9421-4B9F-89B2-DBF076EC7A19}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AB60D0D0-3D2E-451B-8163-2159E9B7FCB1}" name="Tasks"/>
-    <tableColumn id="2" xr3:uid="{B2F1D556-5429-41DD-A296-52DD6CB98949}" name="planned duration (weeks)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{23874EC3-7CB3-4174-A3D2-4526C367438F}" name="actual duration (weeks)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E7F43B15-DAFC-43CC-AB67-67ED28576730}" name="cumulative planned durations" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{B2F1D556-5429-41DD-A296-52DD6CB98949}" name="planned duration (weeks)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{23874EC3-7CB3-4174-A3D2-4526C367438F}" name="actual duration (weeks)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E7F43B15-DAFC-43CC-AB67-67ED28576730}" name="cumulative planned durations" dataDxfId="7">
       <calculatedColumnFormula>E1+C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10463ECD-B524-429F-8D19-CD7D976960AB}" name="cumulative actual durations " dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{10463ECD-B524-429F-8D19-CD7D976960AB}" name="cumulative actual durations " dataDxfId="6">
       <calculatedColumnFormula>IF(D2="","",F1+D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B998FBA3-34AA-42F0-B536-9058455EEC34}" name="corrective" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{B998FBA3-34AA-42F0-B536-9058455EEC34}" name="corrective" dataDxfId="5">
       <calculatedColumnFormula>IF(ISNA(Tableau1[[#This Row],[cumulative actual durations ]]),J6,Tableau1[[#This Row],[cumulative actual durations ]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F8D281-68CA-4C35-8047-37CC16EB811D}" name="Tableau13" displayName="Tableau13" ref="B1:G5" totalsRowShown="0">
+  <autoFilter ref="B1:G5" xr:uid="{C6F8D281-68CA-4C35-8047-37CC16EB811D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{217A65D2-CA45-4039-9087-1CF7392B4FE7}" name="Tasks"/>
+    <tableColumn id="2" xr3:uid="{88ADD116-1D61-406C-961E-A5C0595E3F98}" name="planned cost" dataDxfId="4" dataCellStyle="Monétaire [0]"/>
+    <tableColumn id="3" xr3:uid="{AD423CA6-1976-4E2E-92E1-843209D206AC}" name="actual cost" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4FF6050C-FDEF-404A-B9E2-3AB62B8DC6B3}" name="cumulative planned cost" dataDxfId="2">
+      <calculatedColumnFormula>E1+C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1055949B-2E7F-4906-8B3C-0FFF9AE96159}" name="cumulative actual cost " dataDxfId="1">
+      <calculatedColumnFormula>IF(D2="","",F1+D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{631DB53D-5C9E-4864-ABD8-9CF73A499696}" name="corrective" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISNA(Tableau13[[#This Row],[cumulative actual cost ]]),J6,Tableau13[[#This Row],[cumulative actual cost ]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1800,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1963,4 +3310,166 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3D6AB5-75B3-4C2F-9DDC-A77AC08CEED7}">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.31640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.75">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="D2" s="11">
+        <v>7800000</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2</f>
+        <v>8000000</v>
+      </c>
+      <c r="F2" s="5">
+        <f>D2</f>
+        <v>7800000</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(ISNA(Tableau13[[#This Row],[cumulative actual cost ]]),J6,Tableau13[[#This Row],[cumulative actual cost ]])</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="E3" s="5">
+        <f>E2+C3</f>
+        <v>11000000</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(D3="",NA(),F2+D3)</f>
+        <v>11300000</v>
+      </c>
+      <c r="G3" s="6">
+        <f>IF(ISNA(Tableau13[[#This Row],[cumulative actual cost ]]),$J$6+G2,Tableau13[[#This Row],[cumulative actual cost ]])</f>
+        <v>11300000</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.AGGREGATE(4,6,Tableau13[[cumulative actual cost ]])</f>
+        <v>11300000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <f>E3+C4</f>
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="5" t="e">
+        <f t="shared" ref="F4:F5" si="0">IF(D4="",NA(),F3+D4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="6">
+        <f>IF(ISNA(Tableau13[[#This Row],[cumulative actual cost ]]),$J$6+G3,Tableau13[[#This Row],[cumulative actual cost ]])</f>
+        <v>13150000</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.AGGREGATE(4,6,Tableau13[cumulative planned cost])</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.75">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <f>E4+C5</f>
+        <v>15000000</v>
+      </c>
+      <c r="F5" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="6">
+        <f>IF(ISNA(Tableau13[[#This Row],[cumulative actual cost ]]),$J$6+G4,Tableau13[[#This Row],[cumulative actual cost ]])</f>
+        <v>15000000</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(Tableau13[[cumulative actual cost ]],"#N/A")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.75">
+      <c r="I6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f>(J4-J3)/J5</f>
+        <v>1850000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>